--- a/data_year/zb/能源/综合能源平衡表.xlsx
+++ b/data_year/zb/能源/综合能源平衡表.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1383 +543,819 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>138569.69580626</v>
+        <v>312124.754849439</v>
       </c>
       <c r="C2" t="n">
-        <v>11446.7133254087</v>
+        <v>27102.0690776089</v>
       </c>
       <c r="D2" t="n">
-        <v>6117.5802948107</v>
+        <v>15051.9602257885</v>
       </c>
       <c r="E2" t="n">
-        <v>4233.1791858376</v>
+        <v>7266.49938045324</v>
       </c>
       <c r="F2" t="n">
-        <v>9327</v>
+        <v>8802.673579127701</v>
       </c>
       <c r="G2" t="n">
-        <v>144233.898754827</v>
+        <v>365588.170755492</v>
       </c>
       <c r="H2" t="n">
-        <v>3087.165</v>
+        <v>8957.992623</v>
       </c>
       <c r="I2" t="n">
-        <v>16695.0470827053</v>
+        <v>36469.6317323662</v>
       </c>
       <c r="J2" t="n">
-        <v>103013.652058072</v>
+        <v>261377.461163945</v>
       </c>
       <c r="K2" t="n">
-        <v>96871.3389427472</v>
+        <v>238652.041517354</v>
       </c>
       <c r="L2" t="n">
-        <v>-2730.098876824</v>
+        <v>4940.31018946978</v>
       </c>
       <c r="M2" t="n">
-        <v>-2423.742573</v>
+        <v>-4362.57000999999</v>
       </c>
       <c r="N2" t="n">
-        <v>2206.979304298</v>
+        <v>5533.19383170598</v>
       </c>
       <c r="O2" t="n">
-        <v>3250.8516662441</v>
+        <v>7847.09674752352</v>
       </c>
       <c r="P2" t="n">
-        <v>4015.9126399143</v>
+        <v>8884.748812125061</v>
       </c>
       <c r="Q2" t="n">
-        <v>780.5367220000001</v>
+        <v>1959.55139700001</v>
       </c>
       <c r="R2" t="n">
-        <v>526.361818</v>
+        <v>1595.1632884241</v>
       </c>
       <c r="S2" t="n">
-        <v>140475.865843737</v>
+        <v>337468.729131133</v>
       </c>
       <c r="T2" t="n">
-        <v>2472.219148</v>
+        <v>14294.3826227644</v>
       </c>
       <c r="U2" t="n">
-        <v>146963.997631651</v>
+        <v>360647.860566022</v>
       </c>
       <c r="V2" t="n">
-        <v>14327</v>
+        <v>57670.6668721808</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143874.603822178</v>
+        <v>340177.506000383</v>
       </c>
       <c r="C3" t="n">
-        <v>11613.109629002</v>
+        <v>29694.1676474925</v>
       </c>
       <c r="D3" t="n">
-        <v>5931.57437708085</v>
+        <v>16843.0743000342</v>
       </c>
       <c r="E3" t="n">
-        <v>4115.19743825921</v>
+        <v>7675.22898019574</v>
       </c>
       <c r="F3" t="n">
-        <v>-11145</v>
+        <v>8448.531557791821</v>
       </c>
       <c r="G3" t="n">
-        <v>147410.460447007</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1858.5356</v>
-      </c>
+        <v>390393.50684504</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>16183.0697154645</v>
+        <v>39583.6629270935</v>
       </c>
       <c r="J3" t="n">
-        <v>107137.598038845</v>
+        <v>278047.833879682</v>
       </c>
       <c r="K3" t="n">
-        <v>100690.358350958</v>
+        <v>264697.518869888</v>
       </c>
       <c r="L3" t="n">
-        <v>-2995.33773966617</v>
+        <v>3350.28887371608</v>
       </c>
       <c r="M3" t="n">
-        <v>224.787652999999</v>
+        <v>-6772.20915</v>
       </c>
       <c r="N3" t="n">
-        <v>2255.01706027869</v>
+        <v>6051.66387105645</v>
       </c>
       <c r="O3" t="n">
-        <v>3170.22940308452</v>
+        <v>9147.498557394871</v>
       </c>
       <c r="P3" t="n">
-        <v>4387.85329605926</v>
+        <v>9199.34899227885</v>
       </c>
       <c r="Q3" t="n">
-        <v>607.115473000001</v>
+        <v>1791.57977299999</v>
       </c>
       <c r="R3" t="n">
-        <v>543.378616</v>
+        <v>1833.19115056347</v>
       </c>
       <c r="S3" t="n">
-        <v>143615.479411614</v>
+        <v>373296.068404021</v>
       </c>
       <c r="T3" t="n">
-        <v>2402.465479</v>
+        <v>15411.931165025</v>
       </c>
       <c r="U3" t="n">
-        <v>150405.798186673</v>
+        <v>387043.217971324</v>
       </c>
       <c r="V3" t="n">
-        <v>13471</v>
+        <v>65436.7415524489</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150655.707033194</v>
+        <v>351040.751998501</v>
       </c>
       <c r="C4" t="n">
-        <v>12313.2678562624</v>
+        <v>32560.5961832019</v>
       </c>
       <c r="D4" t="n">
-        <v>6240.93036288767</v>
+        <v>18406.6326551238</v>
       </c>
       <c r="E4" t="n">
-        <v>4331.18322650766</v>
+        <v>7803.56890082321</v>
       </c>
       <c r="F4" t="n">
-        <v>11695.2399842597</v>
+        <v>7374.40454501568</v>
       </c>
       <c r="G4" t="n">
-        <v>155927.445058402</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1907.97652</v>
-      </c>
+        <v>407594.311257406</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>17162.4620020478</v>
+        <v>42305.8386981445</v>
       </c>
       <c r="J4" t="n">
-        <v>113600.444588381</v>
+        <v>284711.504522983</v>
       </c>
       <c r="K4" t="n">
-        <v>106376.567552621</v>
+        <v>269900.31113629</v>
       </c>
       <c r="L4" t="n">
-        <v>-3503.54925935884</v>
+        <v>5456.44287468278</v>
       </c>
       <c r="M4" t="n">
-        <v>-710.343340000005</v>
+        <v>-4772.650079</v>
       </c>
       <c r="N4" t="n">
-        <v>2409.574963816</v>
+        <v>6337.40754127389</v>
       </c>
       <c r="O4" t="n">
-        <v>3373.17317707797</v>
+        <v>10012.3262303078</v>
       </c>
       <c r="P4" t="n">
-        <v>4778.11409510036</v>
+        <v>9725.75323291731</v>
       </c>
       <c r="Q4" t="n">
-        <v>1015.439629</v>
+        <v>2153.453925</v>
       </c>
       <c r="R4" t="n">
-        <v>540.51893</v>
+        <v>2179.23936417713</v>
       </c>
       <c r="S4" t="n">
-        <v>151864.91148766</v>
+        <v>386888.498297445</v>
       </c>
       <c r="T4" t="n">
-        <v>2787.968735</v>
+        <v>16763</v>
       </c>
       <c r="U4" t="n">
-        <v>159430.99431776</v>
+        <v>402137.868382723</v>
       </c>
       <c r="V4" t="n">
-        <v>15769.3448294676</v>
+        <v>68700.6138829211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>171905.880259098</v>
+        <v>358783.760868395</v>
       </c>
       <c r="C5" t="n">
-        <v>14116.1942875556</v>
+        <v>34819.0224254457</v>
       </c>
       <c r="D5" t="n">
-        <v>7152.84412565391</v>
+        <v>19762.5940623085</v>
       </c>
       <c r="E5" t="n">
-        <v>4954.60182154282</v>
+        <v>8054.79716127898</v>
       </c>
       <c r="F5" t="n">
-        <v>12989.4651856297</v>
+        <v>8004.7666920604</v>
       </c>
       <c r="G5" t="n">
-        <v>180193.090219002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2042.76432</v>
-      </c>
+        <v>417415.31274057</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>19764.6622652708</v>
+        <v>45530.8401351548</v>
       </c>
       <c r="J5" t="n">
-        <v>131167.888893296</v>
+        <v>291130.634329835</v>
       </c>
       <c r="K5" t="n">
-        <v>123122.237102798</v>
+        <v>278513.507218854</v>
       </c>
       <c r="L5" t="n">
-        <v>-3598.72762908408</v>
+        <v>502.247395720449</v>
       </c>
       <c r="M5" t="n">
-        <v>-814.2225299999971</v>
+        <v>-6784.07823</v>
       </c>
       <c r="N5" t="n">
-        <v>2720.66072684524</v>
+        <v>7016.98199585064</v>
       </c>
       <c r="O5" t="n">
-        <v>3914.93183838611</v>
+        <v>10598.157176715</v>
       </c>
       <c r="P5" t="n">
-        <v>4979.33085684306</v>
+        <v>10438.988538529</v>
       </c>
       <c r="Q5" t="n">
-        <v>1091.649487</v>
+        <v>1898.892458</v>
       </c>
       <c r="R5" t="n">
-        <v>768.612283999997</v>
+        <v>2433.33458224379</v>
       </c>
       <c r="S5" t="n">
-        <v>175434.900096243</v>
+        <v>403813.719652716</v>
       </c>
       <c r="T5" t="n">
-        <v>3377.58689500001</v>
+        <v>15993.509493604</v>
       </c>
       <c r="U5" t="n">
-        <v>183791.78395855</v>
+        <v>416913.065344849</v>
       </c>
       <c r="V5" t="n">
-        <v>20048.1333555337</v>
+        <v>73420.3967942356</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>196647.539610492</v>
+        <v>362212.494048828</v>
       </c>
       <c r="C6" t="n">
-        <v>16642.2055441156</v>
+        <v>36343.0423201367</v>
       </c>
       <c r="D6" t="n">
-        <v>8242.820746746151</v>
+        <v>20068.7235397751</v>
       </c>
       <c r="E6" t="n">
-        <v>5697.35107445097</v>
+        <v>8020.04638868458</v>
       </c>
       <c r="F6" t="n">
-        <v>11646.0320807074</v>
+        <v>8269.89943212224</v>
       </c>
       <c r="G6" t="n">
-        <v>212650.11308229</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2507.98632</v>
-      </c>
+        <v>427429.666647573</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>22768.4097995442</v>
+        <v>47211.419108517</v>
       </c>
       <c r="J6" t="n">
-        <v>152506.508846665</v>
+        <v>298449.153233874</v>
       </c>
       <c r="K6" t="n">
-        <v>143607.370825461</v>
+        <v>285947.782761478</v>
       </c>
       <c r="L6" t="n">
-        <v>-805.8705453753651</v>
+        <v>-904.328060827102</v>
       </c>
       <c r="M6" t="n">
-        <v>-1452.06876244</v>
+        <v>-4539.613694</v>
       </c>
       <c r="N6" t="n">
-        <v>3114.6012238959</v>
+        <v>7377.2728052225</v>
       </c>
       <c r="O6" t="n">
-        <v>4484.09083772169</v>
+        <v>10864.3361452879</v>
       </c>
       <c r="P6" t="n">
-        <v>5439.15615190054</v>
+        <v>10185.8974484808</v>
       </c>
       <c r="Q6" t="n">
-        <v>1415.604818</v>
+        <v>2114.601283</v>
       </c>
       <c r="R6" t="n">
-        <v>556.899089601999</v>
+        <v>3540.14663603117</v>
       </c>
       <c r="S6" t="n">
-        <v>204235.721079663</v>
+        <v>415455.729304366</v>
       </c>
       <c r="T6" t="n">
-        <v>3781.106396102</v>
+        <v>17269.9732205529</v>
       </c>
       <c r="U6" t="n">
-        <v>213455.983627666</v>
+        <v>428333.9947084</v>
       </c>
       <c r="V6" t="n">
-        <v>26592.6879949458</v>
+        <v>78026.6857248671</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>229036.720466258</v>
+        <v>362193.353949555</v>
       </c>
       <c r="C7" t="n">
-        <v>19135.5815630926</v>
+        <v>38510.182997401</v>
       </c>
       <c r="D7" t="n">
-        <v>10483.5999072477</v>
+        <v>21924.8217510147</v>
       </c>
       <c r="E7" t="n">
-        <v>6860.4567742891</v>
+        <v>8271.0189467443</v>
       </c>
       <c r="F7" t="n">
-        <v>11257</v>
+        <v>9784.7560151712</v>
       </c>
       <c r="G7" t="n">
-        <v>254618.721533003</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7452.208918</v>
-      </c>
+        <v>431635.645504188</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>27572.9003516132</v>
+        <v>50461.330161103</v>
       </c>
       <c r="J7" t="n">
-        <v>187914.462304173</v>
+        <v>295952.906866112</v>
       </c>
       <c r="K7" t="n">
-        <v>177775.235270307</v>
+        <v>282290.934796637</v>
       </c>
       <c r="L7" t="n">
-        <v>-6750.673027401</v>
+        <v>-2477.1372053204</v>
       </c>
       <c r="M7" t="n">
-        <v>2563.632681996</v>
+        <v>1531.710575</v>
       </c>
       <c r="N7" t="n">
-        <v>3485.7290322588</v>
+        <v>7545.2827682233</v>
       </c>
       <c r="O7" t="n">
-        <v>5916.6269558452</v>
+        <v>11447.2500242607</v>
       </c>
       <c r="P7" t="n">
-        <v>6609.9454572238</v>
+        <v>9724.044337372799</v>
       </c>
       <c r="Q7" t="n">
-        <v>1272.541413</v>
+        <v>2866.4130513</v>
       </c>
       <c r="R7" t="n">
-        <v>854.8269047682001</v>
+        <v>4260.8002959009</v>
       </c>
       <c r="S7" t="n">
-        <v>250877.374657422</v>
+        <v>420110.070445589</v>
       </c>
       <c r="T7" t="n">
-        <v>3882.0744457582</v>
+        <v>18770.3732555464</v>
       </c>
       <c r="U7" t="n">
-        <v>261369.394560404</v>
+        <v>434112.782709508</v>
       </c>
       <c r="V7" t="n">
-        <v>26823</v>
+        <v>77695.33699480419</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>232166.569057904</v>
+        <v>345953.664216811</v>
       </c>
       <c r="C8" t="n">
-        <v>20284.1891721311</v>
+        <v>39882.9576027754</v>
       </c>
       <c r="D8" t="n">
-        <v>10275.9789989969</v>
+        <v>23185.0479845393</v>
       </c>
       <c r="E8" t="n">
-        <v>6330.70640658762</v>
+        <v>8585.0957870121</v>
       </c>
       <c r="F8" t="n">
-        <v>10925</v>
+        <v>11956.2769398938</v>
       </c>
       <c r="G8" t="n">
-        <v>256034.472679217</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3725</v>
-      </c>
+        <v>434120.528972371</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>27765.1619148339</v>
+        <v>54335.5950030123</v>
       </c>
       <c r="J8" t="n">
-        <v>184945.451266561</v>
+        <v>295614.76340338</v>
       </c>
       <c r="K8" t="n">
-        <v>174224.820139237</v>
+        <v>282808.580922947</v>
       </c>
       <c r="L8" t="n">
-        <v>-2641.82638685076</v>
+        <v>-7371.2834819199</v>
       </c>
       <c r="M8" t="n">
-        <v>-104.008851542101</v>
+        <v>9888.394517999999</v>
       </c>
       <c r="N8" t="n">
-        <v>3760.75895767275</v>
+        <v>7846.7916291832</v>
       </c>
       <c r="O8" t="n">
-        <v>5314.04622465627</v>
+        <v>12041.5709290484</v>
       </c>
       <c r="P8" t="n">
-        <v>7100.43327834137</v>
+        <v>9848.875116384101</v>
       </c>
       <c r="Q8" t="n">
-        <v>1391.19574034001</v>
+        <v>3543.493135</v>
       </c>
       <c r="R8" t="n">
-        <v>734.359644619997</v>
+        <v>3886.5385426891</v>
       </c>
       <c r="S8" t="n">
-        <v>247520.265364411</v>
+        <v>428341.754900281</v>
       </c>
       <c r="T8" t="n">
-        <v>4055.60042331486</v>
+        <v>18674.1487856253</v>
       </c>
       <c r="U8" t="n">
-        <v>258676.299066068</v>
+        <v>441491.812454291</v>
       </c>
       <c r="V8" t="n">
-        <v>31171</v>
+        <v>90234.74717745341</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>247279.192147368</v>
+        <v>358867.486709399</v>
       </c>
       <c r="C9" t="n">
-        <v>21959.1315920993</v>
+        <v>42139.5319033302</v>
       </c>
       <c r="D9" t="n">
-        <v>11158.1904442654</v>
+        <v>24277.0335720363</v>
       </c>
       <c r="E9" t="n">
-        <v>6228.39530831082</v>
+        <v>8944.574300636301</v>
       </c>
       <c r="F9" t="n">
-        <v>9995</v>
+        <v>12669.335804921</v>
       </c>
       <c r="G9" t="n">
-        <v>274800.290039726</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6166</v>
-      </c>
+        <v>450443.770958725</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>30813.8976721445</v>
+        <v>57458.9282416116</v>
       </c>
       <c r="J9" t="n">
-        <v>200531.371713411</v>
+        <v>302308.215837507</v>
       </c>
       <c r="K9" t="n">
-        <v>189032.273436556</v>
+        <v>289097.636960479</v>
       </c>
       <c r="L9" t="n">
-        <v>-5707.6539770994</v>
+        <v>-5383.1473286563</v>
       </c>
       <c r="M9" t="n">
-        <v>-3711.3443510113</v>
+        <v>4206.216681168</v>
       </c>
       <c r="N9" t="n">
-        <v>4127.52411677889</v>
+        <v>8242.6644466419</v>
       </c>
       <c r="O9" t="n">
-        <v>5689.37960664055</v>
+        <v>12455.9699819653</v>
       </c>
       <c r="P9" t="n">
-        <v>7657.4741271859</v>
+        <v>10213.1771975397</v>
       </c>
       <c r="Q9" t="n">
-        <v>1325.48493956001</v>
+        <v>4280.4162983791</v>
       </c>
       <c r="R9" t="n">
-        <v>853.818238072007</v>
+        <v>3720.8227330905</v>
       </c>
       <c r="S9" t="n">
-        <v>268609.803862387</v>
+        <v>442254.823449994</v>
       </c>
       <c r="T9" t="n">
-        <v>4240.66602725301</v>
+        <v>19279.4830333559</v>
       </c>
       <c r="U9" t="n">
-        <v>280507.944016825</v>
+        <v>455826.918287382</v>
       </c>
       <c r="V9" t="n">
-        <v>35062</v>
+        <v>100039.40337308</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>260552</v>
+        <v>378859.317496344</v>
       </c>
       <c r="C10" t="n">
-        <v>22917.2868584684</v>
+        <v>43617.2317880464</v>
       </c>
       <c r="D10" t="n">
-        <v>11771.336177367</v>
+        <v>26261.6543119609</v>
       </c>
       <c r="E10" t="n">
-        <v>6013.12695882015</v>
+        <v>8780.691158556299</v>
       </c>
       <c r="F10" t="n">
-        <v>9955</v>
+        <v>13337.3147215921</v>
       </c>
       <c r="G10" t="n">
-        <v>287011.282858616</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6510.836</v>
-      </c>
+        <v>471686.043034601</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>31898.3223911031</v>
+        <v>60436.2236320018</v>
       </c>
       <c r="J10" t="n">
-        <v>209302.117417352</v>
+        <v>311150.63131593</v>
       </c>
       <c r="K10" t="n">
-        <v>196832.492320903</v>
+        <v>300558.27458676</v>
       </c>
       <c r="L10" t="n">
-        <v>-4437.01474509953</v>
+        <v>-239.103818617</v>
       </c>
       <c r="M10" t="n">
-        <v>-6860</v>
+        <v>-4623.088896948</v>
       </c>
       <c r="N10" t="n">
-        <v>3812.52989014229</v>
+        <v>8684.509026985401</v>
       </c>
       <c r="O10" t="n">
-        <v>5733.58078576632</v>
+        <v>12994.2069438258</v>
       </c>
       <c r="P10" t="n">
-        <v>7736.14345794361</v>
+        <v>10566.9530167696</v>
       </c>
       <c r="Q10" t="n">
-        <v>1380.18257411819</v>
+        <v>5027.2845430308</v>
       </c>
       <c r="R10" t="n">
-        <v>819.064131193074</v>
+        <v>4128.6978547703</v>
       </c>
       <c r="S10" t="n">
-        <v>278546.140879413</v>
+        <v>461019.663254191</v>
       </c>
       <c r="T10" t="n">
-        <v>5166.0132663589</v>
+        <v>20803.1833977251</v>
       </c>
       <c r="U10" t="n">
-        <v>291448.297603716</v>
+        <v>471925.146853218</v>
       </c>
       <c r="V10" t="n">
-        <v>36764</v>
+        <v>110787.129156797</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>274619</v>
+        <v>397317</v>
       </c>
       <c r="C11" t="n">
-        <v>23692</v>
+        <v>43909</v>
       </c>
       <c r="D11" t="n">
-        <v>12690</v>
+        <v>27582</v>
       </c>
       <c r="E11" t="n">
-        <v>6251</v>
+        <v>9018</v>
       </c>
       <c r="F11" t="n">
-        <v>8440</v>
+        <v>14151</v>
       </c>
       <c r="G11" t="n">
-        <v>311277</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7627</v>
-      </c>
+        <v>493178</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>33843</v>
+        <v>61709</v>
       </c>
       <c r="J11" t="n">
-        <v>219197</v>
+        <v>322503</v>
       </c>
       <c r="K11" t="n">
-        <v>205322</v>
+        <v>311542</v>
       </c>
       <c r="L11" t="n">
-        <v>4630</v>
+        <v>5690</v>
       </c>
       <c r="M11" t="n">
-        <v>-9841</v>
+        <v>-9052</v>
       </c>
       <c r="N11" t="n">
-        <v>4562</v>
+        <v>9142</v>
       </c>
       <c r="O11" t="n">
-        <v>6412</v>
+        <v>13624</v>
       </c>
       <c r="P11" t="n">
-        <v>8065</v>
+        <v>10462</v>
       </c>
       <c r="Q11" t="n">
-        <v>1784</v>
+        <v>5895</v>
       </c>
       <c r="R11" t="n">
-        <v>1010</v>
+        <v>4209</v>
       </c>
       <c r="S11" t="n">
-        <v>292299</v>
+        <v>476219</v>
       </c>
       <c r="T11" t="n">
-        <v>6283</v>
+        <v>22156</v>
       </c>
       <c r="U11" t="n">
-        <v>306647</v>
+        <v>487488</v>
       </c>
       <c r="V11" t="n">
-        <v>47313</v>
+        <v>119064</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>312124.754849439</v>
+        <v>407295</v>
       </c>
       <c r="C12" t="n">
-        <v>27102.0690776089</v>
+        <v>41309</v>
       </c>
       <c r="D12" t="n">
-        <v>15051.9602257885</v>
+        <v>28245</v>
       </c>
       <c r="E12" t="n">
-        <v>7266.4993804532</v>
+        <v>9263</v>
       </c>
       <c r="F12" t="n">
-        <v>8802.673579127701</v>
+        <v>12838</v>
       </c>
       <c r="G12" t="n">
-        <v>365588.170755492</v>
-      </c>
-      <c r="H12" t="n">
-        <v>8957.992623</v>
-      </c>
+        <v>507479</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>36469.6317323662</v>
+        <v>64380</v>
       </c>
       <c r="J12" t="n">
-        <v>261377.461163945</v>
+        <v>332625</v>
       </c>
       <c r="K12" t="n">
-        <v>238652.041517354</v>
+        <v>322677</v>
       </c>
       <c r="L12" t="n">
-        <v>4940.3101894698</v>
+        <v>9165</v>
       </c>
       <c r="M12" t="n">
-        <v>-4362.57001</v>
+        <v>-11784</v>
       </c>
       <c r="N12" t="n">
-        <v>5533.193831706</v>
+        <v>9320</v>
       </c>
       <c r="O12" t="n">
-        <v>7847.0967475235</v>
+        <v>13171</v>
       </c>
       <c r="P12" t="n">
-        <v>8884.748812125101</v>
+        <v>10175</v>
       </c>
       <c r="Q12" t="n">
-        <v>1959.551397</v>
+        <v>6132</v>
       </c>
       <c r="R12" t="n">
-        <v>1595.1632884241</v>
+        <v>3938</v>
       </c>
       <c r="S12" t="n">
-        <v>337468.729131133</v>
+        <v>488156</v>
       </c>
       <c r="T12" t="n">
-        <v>14294.3826227644</v>
+        <v>23020</v>
       </c>
       <c r="U12" t="n">
-        <v>360647.860566022</v>
+        <v>498314</v>
       </c>
       <c r="V12" t="n">
-        <v>57670.6668721808</v>
+        <v>124805</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>340177.506000383</v>
+        <v>427115</v>
       </c>
       <c r="C13" t="n">
-        <v>29694.1676474925</v>
+        <v>43935</v>
       </c>
       <c r="D13" t="n">
-        <v>16843.0743000342</v>
+        <v>31762</v>
       </c>
       <c r="E13" t="n">
-        <v>7675.22898019574</v>
+        <v>9661</v>
       </c>
       <c r="F13" t="n">
-        <v>8448.531557791821</v>
+        <v>13122</v>
       </c>
       <c r="G13" t="n">
-        <v>390393.50684504</v>
+        <v>533841</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>39583.6629270935</v>
+        <v>67481</v>
       </c>
       <c r="J13" t="n">
-        <v>278047.833879682</v>
+        <v>348551</v>
       </c>
       <c r="K13" t="n">
-        <v>264697.518869888</v>
+        <v>337621</v>
       </c>
       <c r="L13" t="n">
-        <v>3350.28887371608</v>
+        <v>7945</v>
       </c>
       <c r="M13" t="n">
-        <v>-6772.20915</v>
+        <v>-4959</v>
       </c>
       <c r="N13" t="n">
-        <v>6051.66387105645</v>
+        <v>9608</v>
       </c>
       <c r="O13" t="n">
-        <v>9147.498557394871</v>
+        <v>14898</v>
       </c>
       <c r="P13" t="n">
-        <v>9199.34899227885</v>
+        <v>10138</v>
       </c>
       <c r="Q13" t="n">
-        <v>1791.57977299999</v>
+        <v>6421</v>
       </c>
       <c r="R13" t="n">
-        <v>1833.19115056347</v>
+        <v>3840</v>
       </c>
       <c r="S13" t="n">
-        <v>373296.068404021</v>
+        <v>514744</v>
       </c>
       <c r="T13" t="n">
-        <v>15411.931165025</v>
+        <v>24311</v>
       </c>
       <c r="U13" t="n">
-        <v>387043.217971324</v>
+        <v>525896</v>
       </c>
       <c r="V13" t="n">
-        <v>65436.7415524489</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>351040.751998501</v>
-      </c>
-      <c r="C14" t="n">
-        <v>32560.5961832019</v>
-      </c>
-      <c r="D14" t="n">
-        <v>18406.6326551238</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7803.56890082321</v>
-      </c>
-      <c r="F14" t="n">
-        <v>7374.40454501568</v>
-      </c>
-      <c r="G14" t="n">
-        <v>407594.311257406</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>42305.8386981445</v>
-      </c>
-      <c r="J14" t="n">
-        <v>284711.504522983</v>
-      </c>
-      <c r="K14" t="n">
-        <v>269900.31113629</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5456.44287468278</v>
-      </c>
-      <c r="M14" t="n">
-        <v>-4772.650079</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6337.40754127389</v>
-      </c>
-      <c r="O14" t="n">
-        <v>10012.3262303078</v>
-      </c>
-      <c r="P14" t="n">
-        <v>9725.75323291731</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2153.453925</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2179.23936417713</v>
-      </c>
-      <c r="S14" t="n">
-        <v>386888.498297445</v>
-      </c>
-      <c r="T14" t="n">
-        <v>16763</v>
-      </c>
-      <c r="U14" t="n">
-        <v>402137.868382723</v>
-      </c>
-      <c r="V14" t="n">
-        <v>68700.6138829211</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>358783.760868395</v>
-      </c>
-      <c r="C15" t="n">
-        <v>34819.0224254457</v>
-      </c>
-      <c r="D15" t="n">
-        <v>19762.5940623085</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8054.79716127898</v>
-      </c>
-      <c r="F15" t="n">
-        <v>8004.7666920604</v>
-      </c>
-      <c r="G15" t="n">
-        <v>417415.31274057</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>45530.8401351548</v>
-      </c>
-      <c r="J15" t="n">
-        <v>291130.634329835</v>
-      </c>
-      <c r="K15" t="n">
-        <v>278513.507218854</v>
-      </c>
-      <c r="L15" t="n">
-        <v>502.247395720449</v>
-      </c>
-      <c r="M15" t="n">
-        <v>-6784.07823</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7016.98199585064</v>
-      </c>
-      <c r="O15" t="n">
-        <v>10598.157176715</v>
-      </c>
-      <c r="P15" t="n">
-        <v>10438.988538529</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1898.892458</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2433.33458224379</v>
-      </c>
-      <c r="S15" t="n">
-        <v>403813.719652716</v>
-      </c>
-      <c r="T15" t="n">
-        <v>15993.509493604</v>
-      </c>
-      <c r="U15" t="n">
-        <v>416913.065344849</v>
-      </c>
-      <c r="V15" t="n">
-        <v>73420.3967942356</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>362212.494048828</v>
-      </c>
-      <c r="C16" t="n">
-        <v>36343.0423201367</v>
-      </c>
-      <c r="D16" t="n">
-        <v>20068.7235397751</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8020.04638868458</v>
-      </c>
-      <c r="F16" t="n">
-        <v>8269.89943212224</v>
-      </c>
-      <c r="G16" t="n">
-        <v>427429.666647573</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>47211.419108517</v>
-      </c>
-      <c r="J16" t="n">
-        <v>298449.153233874</v>
-      </c>
-      <c r="K16" t="n">
-        <v>285947.782761478</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-904.328060827102</v>
-      </c>
-      <c r="M16" t="n">
-        <v>-4539.613694</v>
-      </c>
-      <c r="N16" t="n">
-        <v>7377.2728052225</v>
-      </c>
-      <c r="O16" t="n">
-        <v>10864.3361452879</v>
-      </c>
-      <c r="P16" t="n">
-        <v>10185.8974484808</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2114.601283</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3540.14663603117</v>
-      </c>
-      <c r="S16" t="n">
-        <v>415455.729304366</v>
-      </c>
-      <c r="T16" t="n">
-        <v>17269.9732205529</v>
-      </c>
-      <c r="U16" t="n">
-        <v>428333.9947084</v>
-      </c>
-      <c r="V16" t="n">
-        <v>78026.6857248671</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>362193.353949555</v>
-      </c>
-      <c r="C17" t="n">
-        <v>38510.182997401</v>
-      </c>
-      <c r="D17" t="n">
-        <v>21924.8217510147</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8271.0189467443</v>
-      </c>
-      <c r="F17" t="n">
-        <v>9784.7560151712</v>
-      </c>
-      <c r="G17" t="n">
-        <v>431635.645504188</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>50461.330161103</v>
-      </c>
-      <c r="J17" t="n">
-        <v>295952.906866112</v>
-      </c>
-      <c r="K17" t="n">
-        <v>282290.934796637</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-2477.1372053204</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1531.710575</v>
-      </c>
-      <c r="N17" t="n">
-        <v>7545.2827682233</v>
-      </c>
-      <c r="O17" t="n">
-        <v>11447.2500242607</v>
-      </c>
-      <c r="P17" t="n">
-        <v>9724.044337372799</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2866.4130513</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4260.8002959009</v>
-      </c>
-      <c r="S17" t="n">
-        <v>420110.070445589</v>
-      </c>
-      <c r="T17" t="n">
-        <v>18770.3732555464</v>
-      </c>
-      <c r="U17" t="n">
-        <v>434112.782709508</v>
-      </c>
-      <c r="V17" t="n">
-        <v>77695.33699480419</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>345953.664216811</v>
-      </c>
-      <c r="C18" t="n">
-        <v>39882.9576027754</v>
-      </c>
-      <c r="D18" t="n">
-        <v>23185.0479845393</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8585.0957870121</v>
-      </c>
-      <c r="F18" t="n">
-        <v>11956.2769398938</v>
-      </c>
-      <c r="G18" t="n">
-        <v>434120.528972371</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>54335.5950030123</v>
-      </c>
-      <c r="J18" t="n">
-        <v>295614.76340338</v>
-      </c>
-      <c r="K18" t="n">
-        <v>282808.580922947</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-7371.2834819199</v>
-      </c>
-      <c r="M18" t="n">
-        <v>9888.394517999999</v>
-      </c>
-      <c r="N18" t="n">
-        <v>7846.7916291832</v>
-      </c>
-      <c r="O18" t="n">
-        <v>12041.5709290484</v>
-      </c>
-      <c r="P18" t="n">
-        <v>9848.875116384101</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3543.493135</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3886.5385426891</v>
-      </c>
-      <c r="S18" t="n">
-        <v>428341.754900281</v>
-      </c>
-      <c r="T18" t="n">
-        <v>18674.1487856253</v>
-      </c>
-      <c r="U18" t="n">
-        <v>441491.812454291</v>
-      </c>
-      <c r="V18" t="n">
-        <v>90234.74717745341</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>358867.486709399</v>
-      </c>
-      <c r="C19" t="n">
-        <v>42139.5319033302</v>
-      </c>
-      <c r="D19" t="n">
-        <v>24277.0335720363</v>
-      </c>
-      <c r="E19" t="n">
-        <v>8944.574300636301</v>
-      </c>
-      <c r="F19" t="n">
-        <v>12669.335804921</v>
-      </c>
-      <c r="G19" t="n">
-        <v>450443.770958725</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>57458.9282416116</v>
-      </c>
-      <c r="J19" t="n">
-        <v>302308.215837507</v>
-      </c>
-      <c r="K19" t="n">
-        <v>289097.636960479</v>
-      </c>
-      <c r="L19" t="n">
-        <v>-5383.1473286563</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4206.216681168</v>
-      </c>
-      <c r="N19" t="n">
-        <v>8242.6644466419</v>
-      </c>
-      <c r="O19" t="n">
-        <v>12455.9699819653</v>
-      </c>
-      <c r="P19" t="n">
-        <v>10213.1771975397</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4280.4162983791</v>
-      </c>
-      <c r="R19" t="n">
-        <v>3720.8227330905</v>
-      </c>
-      <c r="S19" t="n">
-        <v>442254.823449994</v>
-      </c>
-      <c r="T19" t="n">
-        <v>19279.4830333559</v>
-      </c>
-      <c r="U19" t="n">
-        <v>455826.918287382</v>
-      </c>
-      <c r="V19" t="n">
-        <v>100039.40337308</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>378859.317496344</v>
-      </c>
-      <c r="C20" t="n">
-        <v>43617.2317880464</v>
-      </c>
-      <c r="D20" t="n">
-        <v>26261.6543119609</v>
-      </c>
-      <c r="E20" t="n">
-        <v>8780.691158556299</v>
-      </c>
-      <c r="F20" t="n">
-        <v>13337.3147215921</v>
-      </c>
-      <c r="G20" t="n">
-        <v>471686.043034601</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>60436.2236320018</v>
-      </c>
-      <c r="J20" t="n">
-        <v>311150.63131593</v>
-      </c>
-      <c r="K20" t="n">
-        <v>300558.27458676</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-239.103818617</v>
-      </c>
-      <c r="M20" t="n">
-        <v>-4623.088896948</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8684.509026985401</v>
-      </c>
-      <c r="O20" t="n">
-        <v>12994.2069438258</v>
-      </c>
-      <c r="P20" t="n">
-        <v>10566.9530167696</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5027.2845430308</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4128.6978547703</v>
-      </c>
-      <c r="S20" t="n">
-        <v>461019.663254191</v>
-      </c>
-      <c r="T20" t="n">
-        <v>20803.1833977251</v>
-      </c>
-      <c r="U20" t="n">
-        <v>471925.146853218</v>
-      </c>
-      <c r="V20" t="n">
-        <v>110787.129156797</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>397317</v>
-      </c>
-      <c r="C21" t="n">
-        <v>43909</v>
-      </c>
-      <c r="D21" t="n">
-        <v>27582</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9018</v>
-      </c>
-      <c r="F21" t="n">
-        <v>14151</v>
-      </c>
-      <c r="G21" t="n">
-        <v>493178</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
-        <v>61709</v>
-      </c>
-      <c r="J21" t="n">
-        <v>322503</v>
-      </c>
-      <c r="K21" t="n">
-        <v>311542</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5690</v>
-      </c>
-      <c r="M21" t="n">
-        <v>-9052</v>
-      </c>
-      <c r="N21" t="n">
-        <v>9142</v>
-      </c>
-      <c r="O21" t="n">
-        <v>13624</v>
-      </c>
-      <c r="P21" t="n">
-        <v>10462</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5895</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4209</v>
-      </c>
-      <c r="S21" t="n">
-        <v>476219</v>
-      </c>
-      <c r="T21" t="n">
-        <v>22156</v>
-      </c>
-      <c r="U21" t="n">
-        <v>487488</v>
-      </c>
-      <c r="V21" t="n">
-        <v>119064</v>
+        <v>124807</v>
       </c>
     </row>
   </sheetData>
